--- a/src/main/resources/simpleWrite.xlsx
+++ b/src/main/resources/simpleWrite.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -382,6 +382,104 @@
       </c>
       <c r="F15" s="2"/>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>45102.62365740741</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>45102.62365740741</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>45102.62395833333</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>45102.62395833333</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>45102.62449074074</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>45102.62449074074</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>45102.625231481485</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>45102.625231481485</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>45102.62633101852</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>45102.62633101852</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="n">
+        <v>45102.62693287037</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>45102.62693287037</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="n">
+        <v>45102.73677083333</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>45102.73677083333</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
